--- a/Protheus/Externo/Tucano/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Apontamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80833108-D81D-4E0E-8F3A-F87E4D99EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6717D-C60C-43ED-869E-623F3CC6CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="6075" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="4905" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>DATA</t>
   </si>
@@ -84,16 +84,32 @@
   </si>
   <si>
     <t>Correções no fonte</t>
+  </si>
+  <si>
+    <t>LIVIO004</t>
+  </si>
+  <si>
+    <t>Criação de Campos e validações para um novo tipo de pesagem</t>
+  </si>
+  <si>
+    <t>VAPCPA13</t>
+  </si>
+  <si>
+    <t>Alteração do código fonte</t>
+  </si>
+  <si>
+    <t>Criação de Campo Z0C_TIPO e alteração do código fonte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +131,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -193,8 +217,25 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,10 +734,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E10" s="5">
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F10" s="5">
-        <v>2.0833333333333332E-2</v>
+        <f>E10-D10</f>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -716,13 +758,90 @@
         <v>0.6875</v>
       </c>
       <c r="F11" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45527</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.104166666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45528</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.14583333333333401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45530</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F14" s="19">
+        <f>E14-D14</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10">
+        <v>45530</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protheus/Externo/Tucano/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Apontamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6717D-C60C-43ED-869E-623F3CC6CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD24AB5-BA9A-4DEE-B057-DCF66036342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="4905" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>DATA</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Criação de Campo Z0C_TIPO e alteração do código fonte</t>
+  </si>
+  <si>
+    <t>Correção no gatilho TgLotZ0E, erro Alias em Uso</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +158,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,39 +196,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,21 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -548,293 +544,318 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>45469</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <f>E2-D2</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>45474</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>0.93055555555555558</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F9" si="0">E3-D3</f>
         <v>6.2500000000000111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>45475</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>45479</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>45480</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>0.5</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>45480</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>0.75</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <f>E7-D7</f>
         <v>0.20833333333333337</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>45481</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>0.375</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>45491</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="9">
         <v>45501</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <f>E10-D10</f>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>45517</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="13">
         <v>0.6875</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="13">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>45527</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="13">
         <v>0.8125</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="13">
         <v>0.104166666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="12">
         <v>45528</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="13">
         <v>0.375</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="13">
         <v>0.14583333333333401</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="12">
         <v>45530</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <f>E14-D14</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="12">
         <v>45530</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45537</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F16" s="1">
+        <f>E16-D16</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
